--- a/sawo-kriteria_vahy.xlsx
+++ b/sawo-kriteria_vahy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esmosro.sharepoint.com/sites/SAWO-M1/Zdielane dokumenty/Testovacie_scenáre/Upravené scenáre/UC pripravené na úpravu s novým deployom KE 2025mmdd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkormanova\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2D8D0D6C-344D-41AF-AE68-67B9F20B6FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EE1CCF-3D0E-441D-A57E-F2B15F72F3E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954D672-0971-4F10-A789-DB71F03BB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11280" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kritéria+váhy" sheetId="6" r:id="rId1"/>
@@ -745,26 +745,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE486A9-E17D-4B2B-A043-29598EB7A023}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -863,13 +863,13 @@
         <v>50</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -898,13 +898,13 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -933,13 +933,13 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>17</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>19</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>19</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>22</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>22</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>23</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>23</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>24</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>24</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>25</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>25</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>25</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>25</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>26</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>27</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>27</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>28</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>28</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>28</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>29</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>29</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>29</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>29</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>30</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>30</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>30</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>31</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>31</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>31</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>31</v>
       </c>
@@ -4786,13 +4786,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4837,13 +4837,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4904,19 +4904,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4927,29 +4927,64 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002210A98576708244B006D0AD41360D51" ma:contentTypeVersion="14" ma:contentTypeDescription="Umožňuje vytvoriť nový dokument." ma:contentTypeScope="" ma:versionID="47c5359bdcfbe7ba73536af44aafaf35">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4" xmlns:ns3="b8dbb302-fe79-4168-9f83-288df4f8456a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6bd102c1375266fec965ed53fc8a4f5" ns2:_="" ns3:_="">
-    <xsd:import namespace="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4"/>
-    <xsd:import namespace="b8dbb302-fe79-4168-9f83-288df4f8456a"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="58e588a9-013f-4fb6-a4c1-6b25f90270db" xsi:nil="true"/>
+    <Person xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Person>
+    <_Flow_SignoffStatus xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8" xsi:nil="true"/>
+    <Fin_x00e1_lnaverzia xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8">false</Fin_x00e1_lnaverzia>
+    <d_x00e1_tum xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C1BB60A8014A2E4192D6A017D7372AA8" ma:contentTypeVersion="20" ma:contentTypeDescription="Umožňuje vytvoriť nový dokument." ma:contentTypeScope="" ma:versionID="a533f69528d69f205310efd1381a2742">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4b58c62-f6a7-4aab-b04d-3278b586ade8" xmlns:ns3="58e588a9-013f-4fb6-a4c1-6b25f90270db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7b89c1625fab8576e8f2d267604df40" ns2:_="" ns3:_="">
+    <xsd:import namespace="d4b58c62-f6a7-4aab-b04d-3278b586ade8"/>
+    <xsd:import namespace="58e588a9-013f-4fb6-a4c1-6b25f90270db"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:d_x00e1_tum" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:Person" minOccurs="0"/>
+                <xsd:element ref="ns2:Fin_x00e1_lnaverzia" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:poradov_x00e9__x010d__x00ed_slo" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4957,73 +4992,105 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4b58c62-f6a7-4aab-b04d-3278b586ade8" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="d_x00e1_tum" ma:index="3" nillable="true" ma:displayName="dátum" ma:format="DateOnly" ma:internalName="d_x00e1_tum" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="4" nillable="true" ma:displayName="Stav odhlásenia" ma:internalName="Stav_x0020_odhl_x00e1_senia" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Person" ma:index="5" nillable="true" ma:displayName="Person" ma:format="Dropdown" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="Person" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Fin_x00e1_lnaverzia" ma:index="6" nillable="true" ma:displayName="Finálna verzia" ma:default="0" ma:description="Dokument už je finálne spracovaný" ma:format="Dropdown" ma:internalName="Fin_x00e1_lnaverzia" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázka" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="923efadd-562c-44d3-9662-d3b6a1300d21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázka" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d9ca39ee-c0e8-4c4d-94c2-aa3860bbdc5d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="poradov_x00e9__x010d__x00ed_slo" ma:index="21" nillable="true" ma:displayName="poradové číslo" ma:format="Dropdown" ma:internalName="poradov_x00e9__x010d__x00ed_slo" ma:percentage="FALSE">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b8dbb302-fe79-4168-9f83-288df4f8456a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58e588a9-013f-4fb6-a4c1-6b25f90270db" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Zdieľa sa s" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Zdieľa sa s" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -5042,12 +5109,21 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Zdieľané s podrobnosťami" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Zdieľané s podrobnosťami" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{30248a8e-3781-411c-ba4a-a982da78cd4d}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="58e588a9-013f-4fb6-a4c1-6b25f90270db">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5059,8 +5135,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ obsahu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Nadpis"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Typ obsahu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Nadpis"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5149,35 +5225,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <poradov_x00e9__x010d__x00ed_slo xmlns="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDAA638-2EA5-4C25-919D-4015B85EDE6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d4b58c62-f6a7-4aab-b04d-3278b586ade8"/>
+    <ds:schemaRef ds:uri="58e588a9-013f-4fb6-a4c1-6b25f90270db"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FA79CE-4651-4AC8-89BC-267D469439A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E954500C-33E4-42FE-8D61-E5C96A5C7D55}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE479ED-6EB1-41C1-BB1F-57A197D2DFD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4"/>
-    <ds:schemaRef ds:uri="b8dbb302-fe79-4168-9f83-288df4f8456a"/>
+    <ds:schemaRef ds:uri="d4b58c62-f6a7-4aab-b04d-3278b586ade8"/>
+    <ds:schemaRef ds:uri="58e588a9-013f-4fb6-a4c1-6b25f90270db"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5186,29 +5261,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDAA638-2EA5-4C25-919D-4015B85EDE6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b8dbb302-fe79-4168-9f83-288df4f8456a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FA79CE-4651-4AC8-89BC-267D469439A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/sawo-kriteria_vahy.xlsx
+++ b/sawo-kriteria_vahy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkormanova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esmosro.sharepoint.com/sites/SAWO-M1/Zdielane dokumenty/Testovacie_scenáre/Upravené scenáre/UC pripravené na úpravu s novým deployom KE 2025mmdd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954D672-0971-4F10-A789-DB71F03BB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2D8D0D6C-344D-41AF-AE68-67B9F20B6FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EE1CCF-3D0E-441D-A57E-F2B15F72F3E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11280" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kritéria+váhy" sheetId="6" r:id="rId1"/>
@@ -745,26 +745,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE486A9-E17D-4B2B-A043-29598EB7A023}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -863,13 +863,13 @@
         <v>50</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -898,13 +898,13 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -933,13 +933,13 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>9</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>9</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>9</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>10</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>10</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>11</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>11</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>11</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>11</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>11</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>12</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>12</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>13</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>13</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>14</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>15</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>15</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>15</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>16</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>16</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>17</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>17</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>18</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>18</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>18</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>18</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>19</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>19</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>19</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>19</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>20</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>20</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>20</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>21</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>21</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>21</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>22</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>22</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>23</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>23</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>23</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>23</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>23</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>24</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>24</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>24</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>24</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>24</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>24</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>25</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>25</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>25</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>25</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>25</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>26</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>27</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>27</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>28</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>28</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>28</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>29</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>29</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>29</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>29</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>30</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>30</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>30</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>30</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>31</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>31</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>31</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>31</v>
       </c>
@@ -4786,13 +4786,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4837,13 +4837,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4904,19 +4904,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4927,64 +4927,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="58e588a9-013f-4fb6-a4c1-6b25f90270db" xsi:nil="true"/>
-    <Person xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Person>
-    <_Flow_SignoffStatus xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8" xsi:nil="true"/>
-    <Fin_x00e1_lnaverzia xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8">false</Fin_x00e1_lnaverzia>
-    <d_x00e1_tum xmlns="d4b58c62-f6a7-4aab-b04d-3278b586ade8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C1BB60A8014A2E4192D6A017D7372AA8" ma:contentTypeVersion="20" ma:contentTypeDescription="Umožňuje vytvoriť nový dokument." ma:contentTypeScope="" ma:versionID="a533f69528d69f205310efd1381a2742">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4b58c62-f6a7-4aab-b04d-3278b586ade8" xmlns:ns3="58e588a9-013f-4fb6-a4c1-6b25f90270db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7b89c1625fab8576e8f2d267604df40" ns2:_="" ns3:_="">
-    <xsd:import namespace="d4b58c62-f6a7-4aab-b04d-3278b586ade8"/>
-    <xsd:import namespace="58e588a9-013f-4fb6-a4c1-6b25f90270db"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002210A98576708244B006D0AD41360D51" ma:contentTypeVersion="14" ma:contentTypeDescription="Umožňuje vytvoriť nový dokument." ma:contentTypeScope="" ma:versionID="47c5359bdcfbe7ba73536af44aafaf35">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4" xmlns:ns3="b8dbb302-fe79-4168-9f83-288df4f8456a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6bd102c1375266fec965ed53fc8a4f5" ns2:_="" ns3:_="">
+    <xsd:import namespace="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4"/>
+    <xsd:import namespace="b8dbb302-fe79-4168-9f83-288df4f8456a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:d_x00e1_tum" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:Person" minOccurs="0"/>
-                <xsd:element ref="ns2:Fin_x00e1_lnaverzia" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:poradov_x00e9__x010d__x00ed_slo" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4992,105 +4957,73 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4b58c62-f6a7-4aab-b04d-3278b586ade8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="d_x00e1_tum" ma:index="3" nillable="true" ma:displayName="dátum" ma:format="DateOnly" ma:internalName="d_x00e1_tum" ma:readOnly="false">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="4" nillable="true" ma:displayName="Stav odhlásenia" ma:internalName="Stav_x0020_odhl_x00e1_senia" ma:readOnly="false">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="Person" ma:index="5" nillable="true" ma:displayName="Person" ma:format="Dropdown" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="Person" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Fin_x00e1_lnaverzia" ma:index="6" nillable="true" ma:displayName="Finálna verzia" ma:default="0" ma:description="Dokument už je finálne spracovaný" ma:format="Dropdown" ma:internalName="Fin_x00e1_lnaverzia" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázka" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d9ca39ee-c0e8-4c4d-94c2-aa3860bbdc5d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázka" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="923efadd-562c-44d3-9662-d3b6a1300d21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="poradov_x00e9__x010d__x00ed_slo" ma:index="21" nillable="true" ma:displayName="poradové číslo" ma:format="Dropdown" ma:internalName="poradov_x00e9__x010d__x00ed_slo" ma:percentage="FALSE">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Number"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58e588a9-013f-4fb6-a4c1-6b25f90270db" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b8dbb302-fe79-4168-9f83-288df4f8456a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Zdieľa sa s" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Zdieľa sa s" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -5109,21 +5042,12 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Zdieľané s podrobnosťami" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Zdieľané s podrobnosťami" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{30248a8e-3781-411c-ba4a-a982da78cd4d}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="58e588a9-013f-4fb6-a4c1-6b25f90270db">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5135,8 +5059,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Typ obsahu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Nadpis"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ obsahu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Nadpis"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5225,34 +5149,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDAA638-2EA5-4C25-919D-4015B85EDE6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d4b58c62-f6a7-4aab-b04d-3278b586ade8"/>
-    <ds:schemaRef ds:uri="58e588a9-013f-4fb6-a4c1-6b25f90270db"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <poradov_x00e9__x010d__x00ed_slo xmlns="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FA79CE-4651-4AC8-89BC-267D469439A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE479ED-6EB1-41C1-BB1F-57A197D2DFD8}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E954500C-33E4-42FE-8D61-E5C96A5C7D55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d4b58c62-f6a7-4aab-b04d-3278b586ade8"/>
-    <ds:schemaRef ds:uri="58e588a9-013f-4fb6-a4c1-6b25f90270db"/>
+    <ds:schemaRef ds:uri="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4"/>
+    <ds:schemaRef ds:uri="b8dbb302-fe79-4168-9f83-288df4f8456a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5261,4 +5186,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDAA638-2EA5-4C25-919D-4015B85EDE6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9b20f168-eb9b-47e3-9ea0-b3ffe73d9da4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b8dbb302-fe79-4168-9f83-288df4f8456a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FA79CE-4651-4AC8-89BC-267D469439A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>